--- a/biology/Zoologie/Gillicus/Gillicus.xlsx
+++ b/biology/Zoologie/Gillicus/Gillicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gillicus arcuatus
 Gillicus est un genre éteint d'ichthyodectidés (une famille de poissons actinoptérygiens téléostéens), qui vécut au cours du Crétacé supérieur dans la voie maritime intérieure de l'Ouest en Amérique du Nord.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (15 janvier 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (15 janvier 2021) :
 Gillicus arcuatus Cope, 1875 †
 Gillicus serridens Woodward, 1901 †</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'inverse des autres Ichthyodectidae, il possédait un grand nombre de petites dents sur sa mâchoire, qui devaient lui permettre de filtrer l'eau et se nourrir du zooplancton, à la manière des baleines actuelles.
 </t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Gillicus a été donné en l'honneur de Theodore Gill (1837-1914) qui a apporté sa contribution à la connaissance des poissons fossiles[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Gillicus a été donné en l'honneur de Theodore Gill (1837-1914) qui a apporté sa contribution à la connaissance des poissons fossiles.
 </t>
         </is>
       </c>
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
